--- a/data/long_razon/P18_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_3-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>38,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>77,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-11,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-31,08; 93,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 125,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 19,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 18,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,66; 149,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 25,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 24,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,12; 118,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 11,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>65,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 122,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 178,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 35,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,39; 33,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 121,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 51,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 50,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 110,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 30,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>120,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-42,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-18,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>81,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>102,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-1,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-38,04; 286,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,97; 475,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-80,54; 36,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-64,34; 101,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 281,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 171,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-41,58; 99,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,02; 290,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-43,93; 64,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>67,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 77,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,56; 123,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,59; 4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,51; 107,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 31,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 20,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,3; 98,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,1; 11,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_3-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_3-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.1953574356205737</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4762027971805509</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2242952807689538</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.745705821817861</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.2098662064226465</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.9046221743673175</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.07603105655391369</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.2378732865167987</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.06294603801369707</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.697142471221559</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1434147157064765</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.7405958367926642</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.3387947149370293</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1010904829255278</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5228419607649498</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.73349638615052</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4588399920253822</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.4034524458467676</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2853049726657473</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.09694643077870231</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2920517459820063</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.2698779837397433</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3236341024091693</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.3378012917461004</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.8379964661308726</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.374110269719139</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1586460712892632</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>4.073968840101296</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.082483903076399</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.608255618621753</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.207946409500832</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.6814637629919426</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.2088839968547999</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.219897161911217</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1003459243600744</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.471949053663857</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2180968757410409</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.8118598018470513</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1364930262081157</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2130026958707053</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.03854878237420479</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.4702201464741757</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1471597924920231</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.05372569795715038</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1125486731135399</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.6031383248158343</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.01470140403672761</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.04950242883869529</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.5240197320951219</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.01186787143497653</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4318959954987669</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.2763423166890285</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3503206071257038</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.001192281601646233</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.1376522783086227</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3247730034748736</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.3475519269207819</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.1693019226367579</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2176716578357079</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.1947837410521182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.391615075916157</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.12499015861427</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2920702351582084</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.018989952870884</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3954061423679323</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>1.072779903192494</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5563557922118822</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3695536475679606</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1854701353112297</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.146463857908116</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2731902173897067</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.3989666718649547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.06838700277949376</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.099559371814943</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4161010807295286</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.246868100886868</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.2947501560482109</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.7475876147245287</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.4061999735498117</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3141813139295859</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.128676980764137</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.9391616946614445</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.0235121734818256</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.7084394991019614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.6396736461609845</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.133096164193572</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.7784075619226591</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2630946014325654</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.7187550961138118</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2177617467702613</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.241875130107805</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3623023444405233</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.5600948972173625</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.09962285641895402</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.428873670688614</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.05873603331913883</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.586679685751069</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.190338775463975</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4587985385670766</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.970521696397318</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.6252559200756057</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>3.618797811653584</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.612681327435675</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.692276853013404</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.5569444942024685</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>2.811725667659442</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.696971254934713</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>2.361760445132645</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.00486018431891292</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6735424231639212</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.2139269896808312</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.9762078888979216</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1522202749033117</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.6980034008199386</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.05497640139962604</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1237677456876022</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.09042446051875005</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6869151890598342</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.07047475934478054</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.437015528062237</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3161360789210403</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.202938441795889</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4161565760130557</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3924137131680125</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3331106502036016</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.3608297448820906</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1177193631988313</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.09550074410859645</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2397642054123191</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.3881266641600166</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2139180136432184</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.176647891183514</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.3761367403273664</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.393348316784484</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.07653538103186809</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.990825424791316</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.08246245702423037</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.123480213467098</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2541395544094659</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3873740472324149</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.09424026006064143</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>1.06632797261965</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.09314490206213979</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.7715717685057323</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
